--- a/Machine Learning Workspace/WebService/webservice-input-output.xlsx
+++ b/Machine Learning Workspace/WebService/webservice-input-output.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Adam\Documents\GitHub\Sustainable-AI-Challenge\Machine Learning Workspace\WebService\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3993DE04-D323-42DF-9EDE-CC2EFEA428BC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA0F4257-BF34-46C6-AA08-A3ED3CFD1C43}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{ECECACC5-1A0D-4E8E-80ED-041977E7860F}"/>
+    <workbookView xWindow="28680" yWindow="2580" windowWidth="24240" windowHeight="13140" activeTab="2" xr2:uid="{ECECACC5-1A0D-4E8E-80ED-041977E7860F}"/>
   </bookViews>
   <sheets>
     <sheet name="toronto" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,6 @@
     <sheet name="bruce" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="181029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -34,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="46">
   <si>
     <t>Holiday</t>
   </si>
@@ -163,6 +162,15 @@
   </si>
   <si>
     <t>Bruce</t>
+  </si>
+  <si>
+    <t>AutoML_81bb32b6-9a40-4449-9f6f-ab701e0e2e47_31</t>
+  </si>
+  <si>
+    <t>AutoML_756310da-e42a-4f12-9229-d5b7d718f3f9</t>
+  </si>
+  <si>
+    <t>AutoML_a9ded8aa-5f46-4d7d-9f00-cc9ddd2f97bf_37</t>
   </si>
 </sst>
 </file>
@@ -555,8 +563,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0D76F524-CA96-4FA4-96DC-E038AE082C53}">
   <dimension ref="I3:W33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="K28" sqref="K28"/>
+    <sheetView topLeftCell="I1" workbookViewId="0">
+      <selection activeCell="J6" sqref="J6:K29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -582,6 +590,9 @@
       <c r="J4" t="s">
         <v>13</v>
       </c>
+      <c r="R4" t="s">
+        <v>43</v>
+      </c>
       <c r="S4" t="s">
         <v>37</v>
       </c>
@@ -661,7 +672,9 @@
       <c r="Q6">
         <v>4212</v>
       </c>
-      <c r="R6" s="6"/>
+      <c r="R6">
+        <v>3290.3887652841599</v>
+      </c>
       <c r="S6" s="7">
         <v>3845.9352147915101</v>
       </c>
@@ -672,7 +685,9 @@
         <v>4065.0373175271202</v>
       </c>
       <c r="V6" s="7"/>
-      <c r="W6" s="4"/>
+      <c r="W6" s="7">
+        <v>3820.20499967878</v>
+      </c>
     </row>
     <row r="7" spans="10:23" ht="15.75" x14ac:dyDescent="0.25">
       <c r="J7" s="2" t="s">
@@ -699,7 +714,9 @@
       <c r="Q7">
         <v>4083</v>
       </c>
-      <c r="R7" s="6"/>
+      <c r="R7">
+        <v>3238.2887598703601</v>
+      </c>
       <c r="S7" s="6">
         <v>3825.0230885209598</v>
       </c>
@@ -710,7 +727,9 @@
         <v>4065.0373175271202</v>
       </c>
       <c r="V7" s="6"/>
-      <c r="W7" s="5"/>
+      <c r="W7" s="6">
+        <v>3742.9094737222299</v>
+      </c>
     </row>
     <row r="8" spans="10:23" ht="15.75" x14ac:dyDescent="0.25">
       <c r="J8" s="2" t="s">
@@ -737,7 +756,9 @@
       <c r="Q8">
         <v>3997</v>
       </c>
-      <c r="R8" s="6"/>
+      <c r="R8">
+        <v>3241.79436967115</v>
+      </c>
       <c r="S8" s="6">
         <v>3595.0605804267602</v>
       </c>
@@ -748,7 +769,9 @@
         <v>4065.0373175271202</v>
       </c>
       <c r="V8" s="6"/>
-      <c r="W8" s="5"/>
+      <c r="W8" s="6">
+        <v>3699.8367336266301</v>
+      </c>
     </row>
     <row r="9" spans="10:23" ht="15.75" x14ac:dyDescent="0.25">
       <c r="J9" s="2" t="s">
@@ -775,7 +798,9 @@
       <c r="Q9">
         <v>3971</v>
       </c>
-      <c r="R9" s="6"/>
+      <c r="R9">
+        <v>3253.0403705685899</v>
+      </c>
       <c r="S9" s="6">
         <v>3576.5839571398501</v>
       </c>
@@ -786,7 +811,9 @@
         <v>4065.0373175271202</v>
       </c>
       <c r="V9" s="6"/>
-      <c r="W9" s="5"/>
+      <c r="W9" s="6">
+        <v>3745.9319280342902</v>
+      </c>
     </row>
     <row r="10" spans="10:23" ht="15.75" x14ac:dyDescent="0.25">
       <c r="J10" s="2" t="s">
@@ -813,7 +840,9 @@
       <c r="Q10">
         <v>4010</v>
       </c>
-      <c r="R10" s="6"/>
+      <c r="R10">
+        <v>3315.6568340706399</v>
+      </c>
       <c r="S10" s="6">
         <v>3651.0601694084098</v>
       </c>
@@ -824,7 +853,9 @@
         <v>4065.0373175271202</v>
       </c>
       <c r="V10" s="6"/>
-      <c r="W10" s="5"/>
+      <c r="W10" s="6">
+        <v>3756.4675588007299</v>
+      </c>
     </row>
     <row r="11" spans="10:23" ht="15.75" x14ac:dyDescent="0.25">
       <c r="J11" s="2" t="s">
@@ -851,7 +882,9 @@
       <c r="Q11">
         <v>4113</v>
       </c>
-      <c r="R11" s="6"/>
+      <c r="R11">
+        <v>3526.5225561775101</v>
+      </c>
       <c r="S11" s="6">
         <v>3731.2383402700798</v>
       </c>
@@ -862,7 +895,9 @@
         <v>4346.04800963041</v>
       </c>
       <c r="V11" s="6"/>
-      <c r="W11" s="5"/>
+      <c r="W11" s="6">
+        <v>3808.3145955854998</v>
+      </c>
     </row>
     <row r="12" spans="10:23" ht="15.75" x14ac:dyDescent="0.25">
       <c r="J12" s="2" t="s">
@@ -898,7 +933,9 @@
       </c>
       <c r="U12" s="6"/>
       <c r="V12" s="6"/>
-      <c r="W12" s="5"/>
+      <c r="W12" s="6">
+        <v>4128.4689949513604</v>
+      </c>
     </row>
     <row r="13" spans="10:23" ht="15.75" x14ac:dyDescent="0.25">
       <c r="J13" s="2" t="s">
@@ -934,7 +971,9 @@
       </c>
       <c r="U13" s="6"/>
       <c r="V13" s="6"/>
-      <c r="W13" s="5"/>
+      <c r="W13" s="6">
+        <v>4192.8950267595101</v>
+      </c>
     </row>
     <row r="14" spans="10:23" ht="15.75" x14ac:dyDescent="0.25">
       <c r="J14" s="2" t="s">
@@ -970,7 +1009,9 @@
       </c>
       <c r="U14" s="6"/>
       <c r="V14" s="6"/>
-      <c r="W14" s="5"/>
+      <c r="W14" s="7">
+        <v>4275.3458835909896</v>
+      </c>
     </row>
     <row r="15" spans="10:23" ht="15.75" x14ac:dyDescent="0.25">
       <c r="J15" s="2" t="s">
@@ -1006,7 +1047,9 @@
       </c>
       <c r="U15" s="6"/>
       <c r="V15" s="6"/>
-      <c r="W15" s="5"/>
+      <c r="W15" s="6">
+        <v>4537.5402871351898</v>
+      </c>
     </row>
     <row r="16" spans="10:23" ht="15.75" x14ac:dyDescent="0.25">
       <c r="J16" s="2" t="s">
@@ -1042,7 +1085,9 @@
       </c>
       <c r="U16" s="6"/>
       <c r="V16" s="6"/>
-      <c r="W16" s="5"/>
+      <c r="W16" s="6">
+        <v>4718.9127146525298</v>
+      </c>
     </row>
     <row r="17" spans="9:23" ht="15.75" x14ac:dyDescent="0.25">
       <c r="J17" s="2" t="s">
@@ -1078,7 +1123,9 @@
       </c>
       <c r="U17" s="6"/>
       <c r="V17" s="6"/>
-      <c r="W17" s="5"/>
+      <c r="W17" s="6">
+        <v>4878.4376221785396</v>
+      </c>
     </row>
     <row r="18" spans="9:23" ht="15.75" x14ac:dyDescent="0.25">
       <c r="J18" s="2" t="s">
@@ -1112,7 +1159,9 @@
       </c>
       <c r="U18" s="6"/>
       <c r="V18" s="6"/>
-      <c r="W18" s="5"/>
+      <c r="W18" s="6">
+        <v>4927.5790515091503</v>
+      </c>
     </row>
     <row r="19" spans="9:23" ht="15.75" x14ac:dyDescent="0.25">
       <c r="J19" s="2" t="s">
@@ -1146,7 +1195,9 @@
       </c>
       <c r="U19" s="6"/>
       <c r="V19" s="6"/>
-      <c r="W19" s="5"/>
+      <c r="W19" s="6">
+        <v>4958.2556706054902</v>
+      </c>
     </row>
     <row r="20" spans="9:23" ht="15.75" x14ac:dyDescent="0.25">
       <c r="J20" s="2" t="s">
@@ -1180,7 +1231,9 @@
       </c>
       <c r="U20" s="6"/>
       <c r="V20" s="6"/>
-      <c r="W20" s="5"/>
+      <c r="W20" s="6">
+        <v>4973.4895819912899</v>
+      </c>
     </row>
     <row r="21" spans="9:23" ht="15.75" x14ac:dyDescent="0.25">
       <c r="J21" s="2" t="s">
@@ -1214,7 +1267,9 @@
       </c>
       <c r="U21" s="6"/>
       <c r="V21" s="6"/>
-      <c r="W21" s="5"/>
+      <c r="W21" s="6">
+        <v>4953.1956190955098</v>
+      </c>
     </row>
     <row r="22" spans="9:23" ht="15.75" x14ac:dyDescent="0.25">
       <c r="J22" s="2" t="s">
@@ -1248,7 +1303,9 @@
       </c>
       <c r="U22" s="6"/>
       <c r="V22" s="6"/>
-      <c r="W22" s="5"/>
+      <c r="W22" s="6">
+        <v>5005.7743010412996</v>
+      </c>
     </row>
     <row r="23" spans="9:23" ht="15.75" x14ac:dyDescent="0.25">
       <c r="J23" s="2" t="s">
@@ -1282,7 +1339,9 @@
       </c>
       <c r="U23" s="6"/>
       <c r="V23" s="6"/>
-      <c r="W23" s="5"/>
+      <c r="W23" s="6">
+        <v>4997.9183271176098</v>
+      </c>
     </row>
     <row r="24" spans="9:23" ht="15.75" x14ac:dyDescent="0.25">
       <c r="J24" s="2" t="s">
@@ -1316,7 +1375,9 @@
       </c>
       <c r="U24" s="6"/>
       <c r="V24" s="6"/>
-      <c r="W24" s="5"/>
+      <c r="W24" s="6">
+        <v>4975.7937997561903</v>
+      </c>
     </row>
     <row r="25" spans="9:23" ht="15.75" x14ac:dyDescent="0.25">
       <c r="J25" s="2" t="s">
@@ -1350,7 +1411,9 @@
       </c>
       <c r="U25" s="6"/>
       <c r="V25" s="6"/>
-      <c r="W25" s="5"/>
+      <c r="W25" s="6">
+        <v>4963.9979589841796</v>
+      </c>
     </row>
     <row r="26" spans="9:23" ht="15.75" x14ac:dyDescent="0.25">
       <c r="J26" s="2" t="s">
@@ -1384,7 +1447,9 @@
       </c>
       <c r="U26" s="6"/>
       <c r="V26" s="6"/>
-      <c r="W26" s="5"/>
+      <c r="W26" s="6">
+        <v>4922.1928612105503</v>
+      </c>
     </row>
     <row r="27" spans="9:23" ht="15.75" x14ac:dyDescent="0.25">
       <c r="J27" s="2" t="s">
@@ -1418,7 +1483,9 @@
       </c>
       <c r="U27" s="6"/>
       <c r="V27" s="6"/>
-      <c r="W27" s="5"/>
+      <c r="W27" s="6">
+        <v>4936.5053247552996</v>
+      </c>
     </row>
     <row r="28" spans="9:23" ht="15.75" x14ac:dyDescent="0.25">
       <c r="J28" s="2" t="s">
@@ -1452,7 +1519,9 @@
       </c>
       <c r="U28" s="6"/>
       <c r="V28" s="6"/>
-      <c r="W28" s="5"/>
+      <c r="W28" s="6">
+        <v>4481.7182398412897</v>
+      </c>
     </row>
     <row r="29" spans="9:23" ht="15.75" x14ac:dyDescent="0.25">
       <c r="J29" s="2" t="s">
@@ -1486,7 +1555,13 @@
       </c>
       <c r="U29" s="6"/>
       <c r="V29" s="6"/>
-      <c r="W29" s="5"/>
+      <c r="W29" s="6">
+        <v>4303.2433347100005</v>
+      </c>
+    </row>
+    <row r="31" spans="9:23" x14ac:dyDescent="0.25">
+      <c r="J31" s="3"/>
+      <c r="R31" s="3"/>
     </row>
     <row r="32" spans="9:23" x14ac:dyDescent="0.25">
       <c r="I32" s="3"/>
@@ -1506,7 +1581,7 @@
   <dimension ref="E3:T32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G5" sqref="G3:T5"/>
+      <selection activeCell="N30" sqref="N30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1604,6 +1679,9 @@
       <c r="N6" s="8">
         <v>709</v>
       </c>
+      <c r="O6" s="4">
+        <v>657.65162411475399</v>
+      </c>
       <c r="P6" s="4">
         <v>714.03094206617004</v>
       </c>
@@ -1636,6 +1714,9 @@
       <c r="N7" s="8">
         <v>690</v>
       </c>
+      <c r="O7" s="5">
+        <v>652.506964063429</v>
+      </c>
       <c r="P7" s="5">
         <v>699.50693251048801</v>
       </c>
@@ -1668,6 +1749,9 @@
       <c r="N8" s="8">
         <v>682</v>
       </c>
+      <c r="O8" s="5">
+        <v>641.55643438323398</v>
+      </c>
       <c r="P8" s="5">
         <v>698.44056186877503</v>
       </c>
@@ -1700,6 +1784,9 @@
       <c r="N9" s="8">
         <v>683</v>
       </c>
+      <c r="O9" s="5">
+        <v>647.91244323260696</v>
+      </c>
       <c r="P9" s="5">
         <v>696.24556328729204</v>
       </c>
@@ -1732,6 +1819,9 @@
       <c r="N10" s="8">
         <v>700</v>
       </c>
+      <c r="O10" s="5">
+        <v>677.312639607459</v>
+      </c>
       <c r="P10" s="5">
         <v>700.77154928760694</v>
       </c>
@@ -1764,6 +1854,9 @@
       <c r="N11" s="8">
         <v>730</v>
       </c>
+      <c r="O11" s="5">
+        <v>735.19097431752698</v>
+      </c>
       <c r="P11" s="5">
         <v>781.725430375575</v>
       </c>
@@ -2322,6 +2415,7 @@
     <row r="32" spans="5:17" x14ac:dyDescent="0.25">
       <c r="E32" s="3"/>
       <c r="G32" s="3"/>
+      <c r="H32" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2330,14 +2424,15 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{185D8008-839C-47F4-A2B1-4F9CFB00FEB4}">
-  <dimension ref="F5:S7"/>
+  <dimension ref="F5:S35"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="N11" sqref="N11"/>
+    <sheetView tabSelected="1" topLeftCell="F7" workbookViewId="0">
+      <selection activeCell="Q30" sqref="Q30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="6" max="6" width="27.5703125" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="9.140625" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="11.7109375" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="14.5703125" bestFit="1" customWidth="1"/>
@@ -2357,6 +2452,12 @@
       <c r="F6" t="s">
         <v>42</v>
       </c>
+      <c r="N6" t="s">
+        <v>45</v>
+      </c>
+      <c r="O6" t="s">
+        <v>44</v>
+      </c>
       <c r="Q6" t="s">
         <v>40</v>
       </c>
@@ -2404,6 +2505,766 @@
       <c r="S7" t="s">
         <v>17</v>
       </c>
+    </row>
+    <row r="8" spans="6:19" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="F8" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G8" t="b">
+        <v>0</v>
+      </c>
+      <c r="H8">
+        <v>12.46</v>
+      </c>
+      <c r="I8">
+        <v>2.1</v>
+      </c>
+      <c r="J8">
+        <v>0.1</v>
+      </c>
+      <c r="K8">
+        <v>87</v>
+      </c>
+      <c r="L8" s="8">
+        <v>0</v>
+      </c>
+      <c r="M8" s="8">
+        <v>74</v>
+      </c>
+      <c r="N8">
+        <v>67.413971714951202</v>
+      </c>
+      <c r="O8" s="4">
+        <v>73.093543472835805</v>
+      </c>
+      <c r="P8" s="4">
+        <v>72.284167899482796</v>
+      </c>
+    </row>
+    <row r="9" spans="6:19" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="F9" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="G9" t="b">
+        <v>0</v>
+      </c>
+      <c r="H9">
+        <v>8.18</v>
+      </c>
+      <c r="I9">
+        <v>0.9</v>
+      </c>
+      <c r="J9">
+        <v>0.2</v>
+      </c>
+      <c r="K9">
+        <v>95</v>
+      </c>
+      <c r="L9" s="8">
+        <v>4</v>
+      </c>
+      <c r="M9" s="8">
+        <v>73</v>
+      </c>
+      <c r="N9">
+        <v>67.798828147214493</v>
+      </c>
+      <c r="O9" s="5">
+        <v>72.782795335966696</v>
+      </c>
+      <c r="P9" s="5">
+        <v>71.861100135209298</v>
+      </c>
+    </row>
+    <row r="10" spans="6:19" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="F10" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G10" t="b">
+        <v>0</v>
+      </c>
+      <c r="H10">
+        <v>5.67</v>
+      </c>
+      <c r="I10">
+        <v>0.4</v>
+      </c>
+      <c r="J10">
+        <v>0.1</v>
+      </c>
+      <c r="K10">
+        <v>98</v>
+      </c>
+      <c r="L10" s="8">
+        <v>3</v>
+      </c>
+      <c r="M10" s="8">
+        <v>70</v>
+      </c>
+      <c r="N10">
+        <v>67.929761702497302</v>
+      </c>
+      <c r="O10" s="5">
+        <v>72.834033022160398</v>
+      </c>
+      <c r="P10" s="5">
+        <v>72.101609875475006</v>
+      </c>
+    </row>
+    <row r="11" spans="6:19" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="F11" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G11" t="b">
+        <v>0</v>
+      </c>
+      <c r="H11">
+        <v>5.61</v>
+      </c>
+      <c r="I11">
+        <v>0.3</v>
+      </c>
+      <c r="J11">
+        <v>0.3</v>
+      </c>
+      <c r="K11">
+        <v>100</v>
+      </c>
+      <c r="L11" s="8">
+        <v>1</v>
+      </c>
+      <c r="M11" s="8">
+        <v>71</v>
+      </c>
+      <c r="N11">
+        <v>68.857644260292801</v>
+      </c>
+      <c r="O11" s="5">
+        <v>73.275596073871199</v>
+      </c>
+      <c r="P11" s="5">
+        <v>72.685457772374406</v>
+      </c>
+    </row>
+    <row r="12" spans="6:19" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="F12" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G12" t="b">
+        <v>0</v>
+      </c>
+      <c r="H12">
+        <v>10.37</v>
+      </c>
+      <c r="I12">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="J12">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="K12">
+        <v>100</v>
+      </c>
+      <c r="L12" s="8">
+        <v>5</v>
+      </c>
+      <c r="M12" s="8">
+        <v>72</v>
+      </c>
+      <c r="N12">
+        <v>69.193422724356395</v>
+      </c>
+      <c r="O12" s="5">
+        <v>74.505976222369299</v>
+      </c>
+      <c r="P12" s="5">
+        <v>75.838931654377006</v>
+      </c>
+    </row>
+    <row r="13" spans="6:19" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="F13" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G13" t="b">
+        <v>0</v>
+      </c>
+      <c r="H13">
+        <v>13.41</v>
+      </c>
+      <c r="I13">
+        <v>2.8</v>
+      </c>
+      <c r="J13">
+        <v>2.8</v>
+      </c>
+      <c r="K13">
+        <v>100</v>
+      </c>
+      <c r="L13" s="8">
+        <v>6</v>
+      </c>
+      <c r="M13" s="8">
+        <v>81</v>
+      </c>
+      <c r="N13">
+        <v>76.056016809119797</v>
+      </c>
+      <c r="O13" s="5">
+        <v>80.092317370738996</v>
+      </c>
+      <c r="P13" s="5">
+        <v>77.371626529193904</v>
+      </c>
+    </row>
+    <row r="14" spans="6:19" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="F14" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G14" t="b">
+        <v>0</v>
+      </c>
+      <c r="H14">
+        <v>11.75</v>
+      </c>
+      <c r="I14">
+        <v>2.8</v>
+      </c>
+      <c r="J14">
+        <v>2.7</v>
+      </c>
+      <c r="K14">
+        <v>100</v>
+      </c>
+      <c r="L14" s="8">
+        <v>3</v>
+      </c>
+      <c r="M14" s="8">
+        <v>85</v>
+      </c>
+      <c r="O14" s="5">
+        <v>80.542493019297297</v>
+      </c>
+      <c r="P14" s="5">
+        <v>80.889789314021698</v>
+      </c>
+    </row>
+    <row r="15" spans="6:19" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="F15" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G15" t="b">
+        <v>0</v>
+      </c>
+      <c r="H15">
+        <v>-1.1599999999999999</v>
+      </c>
+      <c r="I15">
+        <v>3.5</v>
+      </c>
+      <c r="J15">
+        <v>3.5</v>
+      </c>
+      <c r="K15">
+        <v>100</v>
+      </c>
+      <c r="L15" s="8">
+        <v>2</v>
+      </c>
+      <c r="M15" s="8">
+        <v>85</v>
+      </c>
+      <c r="O15" s="5">
+        <v>80.384831695456398</v>
+      </c>
+      <c r="P15" s="5">
+        <v>78.0797393384576</v>
+      </c>
+    </row>
+    <row r="16" spans="6:19" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="F16" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G16" t="b">
+        <v>0</v>
+      </c>
+      <c r="H16">
+        <v>2.91</v>
+      </c>
+      <c r="I16">
+        <v>4.2</v>
+      </c>
+      <c r="J16">
+        <v>4.2</v>
+      </c>
+      <c r="K16">
+        <v>100</v>
+      </c>
+      <c r="L16" s="8">
+        <v>10</v>
+      </c>
+      <c r="M16" s="8">
+        <v>82</v>
+      </c>
+      <c r="O16" s="5">
+        <v>81.883284274690496</v>
+      </c>
+      <c r="P16" s="5">
+        <v>81.789484165995802</v>
+      </c>
+    </row>
+    <row r="17" spans="6:16" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="F17" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="G17" t="b">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>3.34</v>
+      </c>
+      <c r="I17">
+        <v>5.7</v>
+      </c>
+      <c r="J17">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="K17">
+        <v>95</v>
+      </c>
+      <c r="L17" s="8">
+        <v>8</v>
+      </c>
+      <c r="M17" s="8">
+        <v>79</v>
+      </c>
+      <c r="O17" s="5">
+        <v>82.363809932334902</v>
+      </c>
+      <c r="P17" s="5">
+        <v>82.150731403534607</v>
+      </c>
+    </row>
+    <row r="18" spans="6:16" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="F18" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="G18" t="b">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>4.82</v>
+      </c>
+      <c r="I18">
+        <v>7.8</v>
+      </c>
+      <c r="J18">
+        <v>5</v>
+      </c>
+      <c r="K18">
+        <v>82</v>
+      </c>
+      <c r="L18" s="8">
+        <v>9</v>
+      </c>
+      <c r="M18" s="8">
+        <v>77</v>
+      </c>
+      <c r="O18" s="5">
+        <v>82.414905418387505</v>
+      </c>
+      <c r="P18" s="5">
+        <v>79.209494165066801</v>
+      </c>
+    </row>
+    <row r="19" spans="6:16" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="F19" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="G19" t="b">
+        <v>0</v>
+      </c>
+      <c r="H19">
+        <v>13.63</v>
+      </c>
+      <c r="I19">
+        <v>8.4</v>
+      </c>
+      <c r="J19">
+        <v>4.7</v>
+      </c>
+      <c r="K19">
+        <v>77</v>
+      </c>
+      <c r="L19" s="8">
+        <v>7</v>
+      </c>
+      <c r="M19" s="8">
+        <v>75</v>
+      </c>
+      <c r="O19" s="5">
+        <v>83.143211666528799</v>
+      </c>
+      <c r="P19" s="5">
+        <v>78.289413208856004</v>
+      </c>
+    </row>
+    <row r="20" spans="6:16" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="F20" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="G20" t="b">
+        <v>0</v>
+      </c>
+      <c r="H20">
+        <v>12.73</v>
+      </c>
+      <c r="I20">
+        <v>8.1</v>
+      </c>
+      <c r="J20">
+        <v>3.5</v>
+      </c>
+      <c r="K20">
+        <v>73</v>
+      </c>
+      <c r="L20" s="8">
+        <v>12</v>
+      </c>
+      <c r="M20" s="8">
+        <v>75</v>
+      </c>
+      <c r="P20" s="5">
+        <v>77.751775956967094</v>
+      </c>
+    </row>
+    <row r="21" spans="6:16" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="F21" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="G21" t="b">
+        <v>0</v>
+      </c>
+      <c r="H21">
+        <v>12.08</v>
+      </c>
+      <c r="I21">
+        <v>8.1</v>
+      </c>
+      <c r="J21">
+        <v>3.5</v>
+      </c>
+      <c r="K21">
+        <v>72</v>
+      </c>
+      <c r="L21" s="8">
+        <v>11</v>
+      </c>
+      <c r="M21" s="8">
+        <v>77</v>
+      </c>
+      <c r="P21" s="5">
+        <v>77.428019850713895</v>
+      </c>
+    </row>
+    <row r="22" spans="6:16" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="F22" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="G22" t="b">
+        <v>0</v>
+      </c>
+      <c r="H22">
+        <v>10.89</v>
+      </c>
+      <c r="I22">
+        <v>7.4</v>
+      </c>
+      <c r="J22">
+        <v>2.9</v>
+      </c>
+      <c r="K22">
+        <v>73</v>
+      </c>
+      <c r="L22" s="8">
+        <v>7</v>
+      </c>
+      <c r="M22" s="8">
+        <v>78</v>
+      </c>
+      <c r="P22" s="5">
+        <v>77.285747110450004</v>
+      </c>
+    </row>
+    <row r="23" spans="6:16" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="F23" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="G23" t="b">
+        <v>0</v>
+      </c>
+      <c r="H23">
+        <v>14.03</v>
+      </c>
+      <c r="I23">
+        <v>8.9</v>
+      </c>
+      <c r="J23">
+        <v>3.6</v>
+      </c>
+      <c r="K23">
+        <v>69</v>
+      </c>
+      <c r="L23" s="8">
+        <v>4</v>
+      </c>
+      <c r="M23" s="8">
+        <v>80</v>
+      </c>
+      <c r="P23" s="5">
+        <v>79.502820516588898</v>
+      </c>
+    </row>
+    <row r="24" spans="6:16" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="F24" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="G24" t="b">
+        <v>0</v>
+      </c>
+      <c r="H24">
+        <v>24.05</v>
+      </c>
+      <c r="I24">
+        <v>6.3</v>
+      </c>
+      <c r="J24">
+        <v>3.2</v>
+      </c>
+      <c r="K24">
+        <v>81</v>
+      </c>
+      <c r="L24" s="8">
+        <v>7</v>
+      </c>
+      <c r="M24" s="8">
+        <v>86</v>
+      </c>
+      <c r="P24" s="5">
+        <v>80.955950363037203</v>
+      </c>
+    </row>
+    <row r="25" spans="6:16" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="F25" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="G25" t="b">
+        <v>0</v>
+      </c>
+      <c r="H25">
+        <v>13.19</v>
+      </c>
+      <c r="I25">
+        <v>5.2</v>
+      </c>
+      <c r="J25">
+        <v>3.1</v>
+      </c>
+      <c r="K25">
+        <v>86</v>
+      </c>
+      <c r="L25" s="8">
+        <v>4</v>
+      </c>
+      <c r="M25" s="8">
+        <v>85</v>
+      </c>
+      <c r="P25" s="5">
+        <v>81.2213891443471</v>
+      </c>
+    </row>
+    <row r="26" spans="6:16" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="F26" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="G26" t="b">
+        <v>0</v>
+      </c>
+      <c r="H26">
+        <v>13.31</v>
+      </c>
+      <c r="I26">
+        <v>4.5</v>
+      </c>
+      <c r="J26">
+        <v>3</v>
+      </c>
+      <c r="K26">
+        <v>90</v>
+      </c>
+      <c r="L26" s="8">
+        <v>10</v>
+      </c>
+      <c r="M26" s="8">
+        <v>81</v>
+      </c>
+      <c r="P26" s="5">
+        <v>79.503236296463996</v>
+      </c>
+    </row>
+    <row r="27" spans="6:16" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="F27" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="G27" t="b">
+        <v>0</v>
+      </c>
+      <c r="H27">
+        <v>12.69</v>
+      </c>
+      <c r="I27">
+        <v>2.5</v>
+      </c>
+      <c r="J27">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="K27">
+        <v>99</v>
+      </c>
+      <c r="L27" s="8">
+        <v>10</v>
+      </c>
+      <c r="M27" s="8">
+        <v>75</v>
+      </c>
+      <c r="P27" s="5">
+        <v>80.741919846063297</v>
+      </c>
+    </row>
+    <row r="28" spans="6:16" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="F28" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="G28" t="b">
+        <v>0</v>
+      </c>
+      <c r="H28">
+        <v>5.91</v>
+      </c>
+      <c r="I28">
+        <v>2.4</v>
+      </c>
+      <c r="J28">
+        <v>2.4</v>
+      </c>
+      <c r="K28">
+        <v>100</v>
+      </c>
+      <c r="L28" s="8">
+        <v>10</v>
+      </c>
+      <c r="M28" s="8">
+        <v>75</v>
+      </c>
+      <c r="P28" s="5">
+        <v>80.294196452817502</v>
+      </c>
+    </row>
+    <row r="29" spans="6:16" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="F29" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="G29" t="b">
+        <v>0</v>
+      </c>
+      <c r="H29">
+        <v>7.52</v>
+      </c>
+      <c r="I29">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="J29">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="K29">
+        <v>100</v>
+      </c>
+      <c r="L29" s="8">
+        <v>13</v>
+      </c>
+      <c r="M29" s="8">
+        <v>77</v>
+      </c>
+      <c r="P29" s="5">
+        <v>76.034855172271605</v>
+      </c>
+    </row>
+    <row r="30" spans="6:16" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="F30" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="G30" t="b">
+        <v>0</v>
+      </c>
+      <c r="H30">
+        <v>7.84</v>
+      </c>
+      <c r="I30">
+        <v>1.6</v>
+      </c>
+      <c r="J30">
+        <v>1.4</v>
+      </c>
+      <c r="K30">
+        <v>99</v>
+      </c>
+      <c r="L30" s="8">
+        <v>16</v>
+      </c>
+      <c r="M30" s="8">
+        <v>73</v>
+      </c>
+      <c r="P30" s="5">
+        <v>74.355691536289797</v>
+      </c>
+    </row>
+    <row r="31" spans="6:16" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="F31" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="G31" t="b">
+        <v>0</v>
+      </c>
+      <c r="H31">
+        <v>0.97</v>
+      </c>
+      <c r="I31">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="J31">
+        <v>0.7</v>
+      </c>
+      <c r="K31">
+        <v>97</v>
+      </c>
+      <c r="L31" s="8">
+        <v>17</v>
+      </c>
+      <c r="M31" s="8">
+        <v>67</v>
+      </c>
+      <c r="P31" s="5">
+        <v>71.380864632141197</v>
+      </c>
+    </row>
+    <row r="32" spans="6:16" x14ac:dyDescent="0.25">
+      <c r="L32" s="8"/>
+      <c r="M32" s="8"/>
+    </row>
+    <row r="33" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F33" s="3"/>
+    </row>
+    <row r="35" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F35" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Machine Learning Workspace/WebService/webservice-input-output.xlsx
+++ b/Machine Learning Workspace/WebService/webservice-input-output.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Adam\Documents\GitHub\Sustainable-AI-Challenge\Machine Learning Workspace\WebService\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA0F4257-BF34-46C6-AA08-A3ED3CFD1C43}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A9D2E37-23EF-4B61-B1DF-92B361DA31F1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="2580" windowWidth="24240" windowHeight="13140" activeTab="2" xr2:uid="{ECECACC5-1A0D-4E8E-80ED-041977E7860F}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{ECECACC5-1A0D-4E8E-80ED-041977E7860F}"/>
   </bookViews>
   <sheets>
     <sheet name="toronto" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="47">
   <si>
     <t>Holiday</t>
   </si>
@@ -171,6 +171,9 @@
   </si>
   <si>
     <t>AutoML_a9ded8aa-5f46-4d7d-9f00-cc9ddd2f97bf_37</t>
+  </si>
+  <si>
+    <t>R2</t>
   </si>
 </sst>
 </file>
@@ -237,7 +240,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
@@ -247,6 +250,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -561,10 +565,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0D76F524-CA96-4FA4-96DC-E038AE082C53}">
-  <dimension ref="I3:W33"/>
+  <dimension ref="I3:Z34"/>
   <sheetViews>
-    <sheetView topLeftCell="I1" workbookViewId="0">
-      <selection activeCell="J6" sqref="J6:K29"/>
+    <sheetView topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="J34" sqref="J34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -576,17 +580,22 @@
     <col min="19" max="20" width="15.5703125" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="14.5703125" bestFit="1" customWidth="1"/>
     <col min="22" max="23" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="25" max="26" width="15.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="10:23" x14ac:dyDescent="0.25">
+    <row r="3" spans="10:26" x14ac:dyDescent="0.25">
       <c r="S3" t="s">
         <v>39</v>
       </c>
       <c r="V3" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="4" spans="10:23" x14ac:dyDescent="0.25">
+      <c r="Y3" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="4" spans="10:26" x14ac:dyDescent="0.25">
       <c r="J4" t="s">
         <v>13</v>
       </c>
@@ -602,8 +611,11 @@
       <c r="U4" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="5" spans="10:23" x14ac:dyDescent="0.25">
+      <c r="X4" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="5" spans="10:26" x14ac:dyDescent="0.25">
       <c r="J5" t="s">
         <v>1</v>
       </c>
@@ -646,8 +658,17 @@
       <c r="W5" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="6" spans="10:23" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="X5" t="s">
+        <v>16</v>
+      </c>
+      <c r="Y5" t="s">
+        <v>14</v>
+      </c>
+      <c r="Z5" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="6" spans="10:26" ht="15.75" x14ac:dyDescent="0.25">
       <c r="J6" s="1" t="s">
         <v>7</v>
       </c>
@@ -684,12 +705,23 @@
       <c r="U6" s="4">
         <v>4065.0373175271202</v>
       </c>
-      <c r="V6" s="7"/>
+      <c r="V6" s="4">
+        <v>4101.7669564034004</v>
+      </c>
       <c r="W6" s="7">
         <v>3820.20499967878</v>
       </c>
-    </row>
-    <row r="7" spans="10:23" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="X6" s="4">
+        <v>4085.1361023869699</v>
+      </c>
+      <c r="Y6" s="4">
+        <v>3948.2853605477999</v>
+      </c>
+      <c r="Z6" s="4">
+        <v>4068.6317430807399</v>
+      </c>
+    </row>
+    <row r="7" spans="10:26" ht="15.75" x14ac:dyDescent="0.25">
       <c r="J7" s="2" t="s">
         <v>8</v>
       </c>
@@ -726,12 +758,23 @@
       <c r="U7" s="5">
         <v>4065.0373175271202</v>
       </c>
-      <c r="V7" s="6"/>
+      <c r="V7" s="5">
+        <v>3943.4276712259002</v>
+      </c>
       <c r="W7" s="6">
         <v>3742.9094737222299</v>
       </c>
-    </row>
-    <row r="8" spans="10:23" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="X7" s="5">
+        <v>3925.68871060624</v>
+      </c>
+      <c r="Y7" s="5">
+        <v>3784.2184687537201</v>
+      </c>
+      <c r="Z7" s="5">
+        <v>3918.0266077203</v>
+      </c>
+    </row>
+    <row r="8" spans="10:26" ht="15.75" x14ac:dyDescent="0.25">
       <c r="J8" s="2" t="s">
         <v>9</v>
       </c>
@@ -768,12 +811,23 @@
       <c r="U8" s="5">
         <v>4065.0373175271202</v>
       </c>
-      <c r="V8" s="6"/>
+      <c r="V8" s="5">
+        <v>3865.0668887336201</v>
+      </c>
       <c r="W8" s="6">
         <v>3699.8367336266301</v>
       </c>
-    </row>
-    <row r="9" spans="10:23" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="X8" s="5">
+        <v>3875.2366908107801</v>
+      </c>
+      <c r="Y8" s="5">
+        <v>3716.97962755957</v>
+      </c>
+      <c r="Z8" s="4">
+        <v>3849.9583628441501</v>
+      </c>
+    </row>
+    <row r="9" spans="10:26" ht="15.75" x14ac:dyDescent="0.25">
       <c r="J9" s="2" t="s">
         <v>10</v>
       </c>
@@ -810,12 +864,23 @@
       <c r="U9" s="5">
         <v>4065.0373175271202</v>
       </c>
-      <c r="V9" s="6"/>
+      <c r="V9" s="5">
+        <v>3881.5360428183199</v>
+      </c>
       <c r="W9" s="6">
         <v>3745.9319280342902</v>
       </c>
-    </row>
-    <row r="10" spans="10:23" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="X9" s="5">
+        <v>3867.0361780117701</v>
+      </c>
+      <c r="Y9" s="5">
+        <v>3701.76368116609</v>
+      </c>
+      <c r="Z9" s="5">
+        <v>3785.85225884587</v>
+      </c>
+    </row>
+    <row r="10" spans="10:26" ht="15.75" x14ac:dyDescent="0.25">
       <c r="J10" s="2" t="s">
         <v>11</v>
       </c>
@@ -852,12 +917,23 @@
       <c r="U10" s="5">
         <v>4065.0373175271202</v>
       </c>
-      <c r="V10" s="6"/>
+      <c r="V10" s="5">
+        <v>3849.7560355283699</v>
+      </c>
       <c r="W10" s="6">
         <v>3756.4675588007299</v>
       </c>
-    </row>
-    <row r="11" spans="10:23" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="X10" s="5">
+        <v>3887.2061988939299</v>
+      </c>
+      <c r="Y10" s="5">
+        <v>3651.8280254894798</v>
+      </c>
+      <c r="Z10" s="5">
+        <v>3819.7810443623698</v>
+      </c>
+    </row>
+    <row r="11" spans="10:26" ht="15.75" x14ac:dyDescent="0.25">
       <c r="J11" s="2" t="s">
         <v>12</v>
       </c>
@@ -894,12 +970,23 @@
       <c r="U11" s="5">
         <v>4346.04800963041</v>
       </c>
-      <c r="V11" s="6"/>
+      <c r="V11" s="5">
+        <v>3831.4496305006601</v>
+      </c>
       <c r="W11" s="6">
         <v>3808.3145955854998</v>
       </c>
-    </row>
-    <row r="12" spans="10:23" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="X11" s="5">
+        <v>3967.7276182042801</v>
+      </c>
+      <c r="Y11" s="5">
+        <v>3794.8506007177298</v>
+      </c>
+      <c r="Z11" s="5">
+        <v>3775.0343248440599</v>
+      </c>
+    </row>
+    <row r="12" spans="10:26" ht="15.75" x14ac:dyDescent="0.25">
       <c r="J12" s="2" t="s">
         <v>18</v>
       </c>
@@ -932,12 +1019,20 @@
         <v>4405.1494012899902</v>
       </c>
       <c r="U12" s="6"/>
-      <c r="V12" s="6"/>
+      <c r="V12" s="5">
+        <v>3923.6805128853098</v>
+      </c>
       <c r="W12" s="6">
         <v>4128.4689949513604</v>
       </c>
-    </row>
-    <row r="13" spans="10:23" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="Y12" s="5">
+        <v>3847.9742838751499</v>
+      </c>
+      <c r="Z12" s="5">
+        <v>3975.3838962630998</v>
+      </c>
+    </row>
+    <row r="13" spans="10:26" ht="15.75" x14ac:dyDescent="0.25">
       <c r="J13" s="2" t="s">
         <v>19</v>
       </c>
@@ -970,12 +1065,20 @@
         <v>4529.9260659604497</v>
       </c>
       <c r="U13" s="6"/>
-      <c r="V13" s="6"/>
+      <c r="V13" s="5">
+        <v>3986.6755213435499</v>
+      </c>
       <c r="W13" s="6">
         <v>4192.8950267595101</v>
       </c>
-    </row>
-    <row r="14" spans="10:23" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="Y13" s="5">
+        <v>4086.6764269138698</v>
+      </c>
+      <c r="Z13" s="5">
+        <v>4127.26801331969</v>
+      </c>
+    </row>
+    <row r="14" spans="10:26" ht="15.75" x14ac:dyDescent="0.25">
       <c r="J14" s="2" t="s">
         <v>20</v>
       </c>
@@ -1008,12 +1111,20 @@
         <v>4740.7636604341296</v>
       </c>
       <c r="U14" s="6"/>
-      <c r="V14" s="6"/>
+      <c r="V14" s="5">
+        <v>4015.3787413812101</v>
+      </c>
       <c r="W14" s="7">
         <v>4275.3458835909896</v>
       </c>
-    </row>
-    <row r="15" spans="10:23" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="Y14" s="5">
+        <v>4371.9129790574598</v>
+      </c>
+      <c r="Z14" s="5">
+        <v>4371.2777289738997</v>
+      </c>
+    </row>
+    <row r="15" spans="10:26" ht="15.75" x14ac:dyDescent="0.25">
       <c r="J15" s="2" t="s">
         <v>21</v>
       </c>
@@ -1046,12 +1157,20 @@
         <v>4778.7455486794797</v>
       </c>
       <c r="U15" s="6"/>
-      <c r="V15" s="6"/>
+      <c r="V15" s="5">
+        <v>4237.5713819421599</v>
+      </c>
       <c r="W15" s="6">
         <v>4537.5402871351898</v>
       </c>
-    </row>
-    <row r="16" spans="10:23" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="Y15" s="5">
+        <v>4567.5438944215803</v>
+      </c>
+      <c r="Z15" s="5">
+        <v>4538.8242613600396</v>
+      </c>
+    </row>
+    <row r="16" spans="10:26" ht="15.75" x14ac:dyDescent="0.25">
       <c r="J16" s="2" t="s">
         <v>22</v>
       </c>
@@ -1084,12 +1203,20 @@
         <v>4798.0316303621103</v>
       </c>
       <c r="U16" s="6"/>
-      <c r="V16" s="6"/>
+      <c r="V16" s="5">
+        <v>4479.9503540587302</v>
+      </c>
       <c r="W16" s="6">
         <v>4718.9127146525298</v>
       </c>
-    </row>
-    <row r="17" spans="9:23" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="Y16" s="5">
+        <v>4752.3340077153998</v>
+      </c>
+      <c r="Z16" s="5">
+        <v>4661.50528370549</v>
+      </c>
+    </row>
+    <row r="17" spans="9:26" ht="15.75" x14ac:dyDescent="0.25">
       <c r="J17" s="2" t="s">
         <v>23</v>
       </c>
@@ -1122,12 +1249,20 @@
         <v>4802.2713288996501</v>
       </c>
       <c r="U17" s="6"/>
-      <c r="V17" s="6"/>
+      <c r="V17" s="5">
+        <v>4445.2356665457301</v>
+      </c>
       <c r="W17" s="6">
         <v>4878.4376221785396</v>
       </c>
-    </row>
-    <row r="18" spans="9:23" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="Y17" s="5">
+        <v>4782.0135762068403</v>
+      </c>
+      <c r="Z17" s="5">
+        <v>4701.6154079982698</v>
+      </c>
+    </row>
+    <row r="18" spans="9:26" ht="15.75" x14ac:dyDescent="0.25">
       <c r="J18" s="2" t="s">
         <v>24</v>
       </c>
@@ -1162,8 +1297,11 @@
       <c r="W18" s="6">
         <v>4927.5790515091503</v>
       </c>
-    </row>
-    <row r="19" spans="9:23" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="Z18" s="5">
+        <v>4671.9462905292703</v>
+      </c>
+    </row>
+    <row r="19" spans="9:26" ht="15.75" x14ac:dyDescent="0.25">
       <c r="J19" s="2" t="s">
         <v>25</v>
       </c>
@@ -1198,8 +1336,11 @@
       <c r="W19" s="6">
         <v>4958.2556706054902</v>
       </c>
-    </row>
-    <row r="20" spans="9:23" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="Z19" s="5">
+        <v>4614.8673201378897</v>
+      </c>
+    </row>
+    <row r="20" spans="9:26" ht="15.75" x14ac:dyDescent="0.25">
       <c r="J20" s="2" t="s">
         <v>26</v>
       </c>
@@ -1234,8 +1375,11 @@
       <c r="W20" s="6">
         <v>4973.4895819912899</v>
       </c>
-    </row>
-    <row r="21" spans="9:23" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="Z20" s="5">
+        <v>4576.9639922065799</v>
+      </c>
+    </row>
+    <row r="21" spans="9:26" ht="15.75" x14ac:dyDescent="0.25">
       <c r="J21" s="2" t="s">
         <v>27</v>
       </c>
@@ -1270,8 +1414,11 @@
       <c r="W21" s="6">
         <v>4953.1956190955098</v>
       </c>
-    </row>
-    <row r="22" spans="9:23" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="Z21" s="5">
+        <v>4579.7980962295496</v>
+      </c>
+    </row>
+    <row r="22" spans="9:26" ht="15.75" x14ac:dyDescent="0.25">
       <c r="J22" s="2" t="s">
         <v>28</v>
       </c>
@@ -1306,8 +1453,11 @@
       <c r="W22" s="6">
         <v>5005.7743010412996</v>
       </c>
-    </row>
-    <row r="23" spans="9:23" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="Z22" s="5">
+        <v>4609.0763735634</v>
+      </c>
+    </row>
+    <row r="23" spans="9:26" ht="15.75" x14ac:dyDescent="0.25">
       <c r="J23" s="2" t="s">
         <v>29</v>
       </c>
@@ -1342,8 +1492,11 @@
       <c r="W23" s="6">
         <v>4997.9183271176098</v>
       </c>
-    </row>
-    <row r="24" spans="9:23" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="Z23" s="5">
+        <v>4611.94465434823</v>
+      </c>
+    </row>
+    <row r="24" spans="9:26" ht="15.75" x14ac:dyDescent="0.25">
       <c r="J24" s="2" t="s">
         <v>30</v>
       </c>
@@ -1378,8 +1531,11 @@
       <c r="W24" s="6">
         <v>4975.7937997561903</v>
       </c>
-    </row>
-    <row r="25" spans="9:23" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="Z24" s="5">
+        <v>4670.5584819552896</v>
+      </c>
+    </row>
+    <row r="25" spans="9:26" ht="15.75" x14ac:dyDescent="0.25">
       <c r="J25" s="2" t="s">
         <v>31</v>
       </c>
@@ -1414,8 +1570,11 @@
       <c r="W25" s="6">
         <v>4963.9979589841796</v>
       </c>
-    </row>
-    <row r="26" spans="9:23" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="Z25" s="5">
+        <v>4691.9466597450801</v>
+      </c>
+    </row>
+    <row r="26" spans="9:26" ht="15.75" x14ac:dyDescent="0.25">
       <c r="J26" s="2" t="s">
         <v>32</v>
       </c>
@@ -1450,8 +1609,11 @@
       <c r="W26" s="6">
         <v>4922.1928612105503</v>
       </c>
-    </row>
-    <row r="27" spans="9:23" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="Z26" s="5">
+        <v>4608.52342431128</v>
+      </c>
+    </row>
+    <row r="27" spans="9:26" ht="15.75" x14ac:dyDescent="0.25">
       <c r="J27" s="2" t="s">
         <v>33</v>
       </c>
@@ -1486,8 +1648,11 @@
       <c r="W27" s="6">
         <v>4936.5053247552996</v>
       </c>
-    </row>
-    <row r="28" spans="9:23" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="Z27" s="5">
+        <v>4560.8979129641602</v>
+      </c>
+    </row>
+    <row r="28" spans="9:26" ht="15.75" x14ac:dyDescent="0.25">
       <c r="J28" s="2" t="s">
         <v>34</v>
       </c>
@@ -1522,8 +1687,11 @@
       <c r="W28" s="6">
         <v>4481.7182398412897</v>
       </c>
-    </row>
-    <row r="29" spans="9:23" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="Z28" s="5">
+        <v>4332.0902360586197</v>
+      </c>
+    </row>
+    <row r="29" spans="9:26" ht="15.75" x14ac:dyDescent="0.25">
       <c r="J29" s="2" t="s">
         <v>35</v>
       </c>
@@ -1558,17 +1726,25 @@
       <c r="W29" s="6">
         <v>4303.2433347100005</v>
       </c>
-    </row>
-    <row r="31" spans="9:23" x14ac:dyDescent="0.25">
+      <c r="Z29" s="5">
+        <v>4095.7058946552602</v>
+      </c>
+    </row>
+    <row r="31" spans="9:26" x14ac:dyDescent="0.25">
       <c r="J31" s="3"/>
       <c r="R31" s="3"/>
-    </row>
-    <row r="32" spans="9:23" x14ac:dyDescent="0.25">
+      <c r="T31" s="3"/>
+    </row>
+    <row r="32" spans="9:26" x14ac:dyDescent="0.25">
       <c r="I32" s="3"/>
       <c r="J32" s="3"/>
-    </row>
-    <row r="33" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="T32" s="3"/>
+    </row>
+    <row r="33" spans="10:11" x14ac:dyDescent="0.25">
       <c r="J33" s="3"/>
+    </row>
+    <row r="34" spans="10:11" x14ac:dyDescent="0.25">
+      <c r="K34" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1578,10 +1754,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6BA61758-5429-433B-BC01-1D30F89FB50E}">
-  <dimension ref="E3:T32"/>
+  <dimension ref="E3:W32"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="N30" sqref="N30"/>
+    <sheetView topLeftCell="I1" workbookViewId="0">
+      <selection activeCell="T6" sqref="T6:T29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1592,25 +1768,33 @@
     <col min="16" max="17" width="15.5703125" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="14.5703125" bestFit="1" customWidth="1"/>
     <col min="19" max="20" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="15.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="7:20" x14ac:dyDescent="0.25">
+    <row r="3" spans="7:23" x14ac:dyDescent="0.25">
       <c r="Q3" t="s">
         <v>39</v>
       </c>
       <c r="S3" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="4" spans="7:20" x14ac:dyDescent="0.25">
+      <c r="V3" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="4" spans="7:23" x14ac:dyDescent="0.25">
       <c r="G4" t="s">
         <v>36</v>
       </c>
       <c r="R4" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="5" spans="7:20" x14ac:dyDescent="0.25">
+      <c r="U4" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="5" spans="7:23" x14ac:dyDescent="0.25">
       <c r="G5" t="s">
         <v>1</v>
       </c>
@@ -1653,8 +1837,17 @@
       <c r="T5" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="6" spans="7:20" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="U5" t="s">
+        <v>16</v>
+      </c>
+      <c r="V5" t="s">
+        <v>14</v>
+      </c>
+      <c r="W5" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="6" spans="7:23" ht="15.75" x14ac:dyDescent="0.25">
       <c r="G6" s="1" t="s">
         <v>7</v>
       </c>
@@ -1688,8 +1881,26 @@
       <c r="Q6" s="4">
         <v>706.08719750122498</v>
       </c>
-    </row>
-    <row r="7" spans="7:20" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="R6">
+        <v>709.93611606462298</v>
+      </c>
+      <c r="S6" s="4">
+        <v>598.03176804679003</v>
+      </c>
+      <c r="T6" s="4">
+        <v>731.337895561869</v>
+      </c>
+      <c r="U6" s="6">
+        <v>689.13618443754501</v>
+      </c>
+      <c r="V6" s="6">
+        <v>725.68845369600001</v>
+      </c>
+      <c r="W6" s="9">
+        <v>730.11820986161899</v>
+      </c>
+    </row>
+    <row r="7" spans="7:23" ht="15.75" x14ac:dyDescent="0.25">
       <c r="G7" s="2" t="s">
         <v>8</v>
       </c>
@@ -1723,8 +1934,26 @@
       <c r="Q7" s="5">
         <v>706.16015488259904</v>
       </c>
-    </row>
-    <row r="8" spans="7:20" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="R7">
+        <v>719.18995860942596</v>
+      </c>
+      <c r="S7" s="5">
+        <v>577.83712556680098</v>
+      </c>
+      <c r="T7" s="5">
+        <v>721.66940333669299</v>
+      </c>
+      <c r="U7" s="6">
+        <v>691.36877830442597</v>
+      </c>
+      <c r="V7" s="7">
+        <v>708.60134239637398</v>
+      </c>
+      <c r="W7" s="9">
+        <v>730.89408378634801</v>
+      </c>
+    </row>
+    <row r="8" spans="7:23" ht="15.75" x14ac:dyDescent="0.25">
       <c r="G8" s="2" t="s">
         <v>9</v>
       </c>
@@ -1758,8 +1987,26 @@
       <c r="Q8" s="4">
         <v>706.07543168920802</v>
       </c>
-    </row>
-    <row r="9" spans="7:20" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="R8">
+        <v>712.86313956811898</v>
+      </c>
+      <c r="S8" s="5">
+        <v>582.12854877466498</v>
+      </c>
+      <c r="T8" s="5">
+        <v>722.79938882010003</v>
+      </c>
+      <c r="U8" s="7">
+        <v>681.57434769821498</v>
+      </c>
+      <c r="V8" s="6">
+        <v>701.01877155256204</v>
+      </c>
+      <c r="W8" s="6">
+        <v>721.43280619436598</v>
+      </c>
+    </row>
+    <row r="9" spans="7:23" ht="15.75" x14ac:dyDescent="0.25">
       <c r="G9" s="2" t="s">
         <v>10</v>
       </c>
@@ -1793,8 +2040,26 @@
       <c r="Q9" s="5">
         <v>702.45029906459297</v>
       </c>
-    </row>
-    <row r="10" spans="7:20" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="R9">
+        <v>745.00646366134094</v>
+      </c>
+      <c r="S9" s="5">
+        <v>603.35582663495302</v>
+      </c>
+      <c r="T9" s="5">
+        <v>722.33561639924903</v>
+      </c>
+      <c r="U9" s="6">
+        <v>683.93482323935302</v>
+      </c>
+      <c r="V9" s="6">
+        <v>714.77828686755595</v>
+      </c>
+      <c r="W9" s="6">
+        <v>724.93680932171696</v>
+      </c>
+    </row>
+    <row r="10" spans="7:23" ht="15.75" x14ac:dyDescent="0.25">
       <c r="G10" s="2" t="s">
         <v>11</v>
       </c>
@@ -1828,8 +2093,26 @@
       <c r="Q10" s="5">
         <v>731.33399855593996</v>
       </c>
-    </row>
-    <row r="11" spans="7:20" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="R10">
+        <v>735.93786680241794</v>
+      </c>
+      <c r="S10" s="5">
+        <v>634.68575681607297</v>
+      </c>
+      <c r="T10" s="5">
+        <v>741.96192038398999</v>
+      </c>
+      <c r="U10" s="6">
+        <v>690.47988378958303</v>
+      </c>
+      <c r="V10" s="6">
+        <v>723.87818364530995</v>
+      </c>
+      <c r="W10" s="6">
+        <v>723.63221381988797</v>
+      </c>
+    </row>
+    <row r="11" spans="7:23" ht="15.75" x14ac:dyDescent="0.25">
       <c r="G11" s="2" t="s">
         <v>12</v>
       </c>
@@ -1863,8 +2146,26 @@
       <c r="Q11" s="5">
         <v>770.33479649975902</v>
       </c>
-    </row>
-    <row r="12" spans="7:20" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="R11">
+        <v>782.71275049167605</v>
+      </c>
+      <c r="S11" s="5">
+        <v>709.85175129558104</v>
+      </c>
+      <c r="T11" s="5">
+        <v>774.06228499348902</v>
+      </c>
+      <c r="U11" s="6">
+        <v>740.926256786556</v>
+      </c>
+      <c r="V11" s="6">
+        <v>748.81333660779103</v>
+      </c>
+      <c r="W11" s="7">
+        <v>762.36909775714003</v>
+      </c>
+    </row>
+    <row r="12" spans="7:23" ht="15.75" x14ac:dyDescent="0.25">
       <c r="G12" s="2" t="s">
         <v>18</v>
       </c>
@@ -1895,8 +2196,20 @@
       <c r="Q12" s="5">
         <v>836.79040019908405</v>
       </c>
-    </row>
-    <row r="13" spans="7:20" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="S12" s="5">
+        <v>762.234683639119</v>
+      </c>
+      <c r="T12" s="5">
+        <v>866.31419569113496</v>
+      </c>
+      <c r="V12" s="6">
+        <v>803.87217224613801</v>
+      </c>
+      <c r="W12" s="6">
+        <v>822.73789841810799</v>
+      </c>
+    </row>
+    <row r="13" spans="7:23" ht="15.75" x14ac:dyDescent="0.25">
       <c r="G13" s="2" t="s">
         <v>19</v>
       </c>
@@ -1927,8 +2240,20 @@
       <c r="Q13" s="5">
         <v>866.55367799788303</v>
       </c>
-    </row>
-    <row r="14" spans="7:20" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="S13" s="5">
+        <v>804.78661525754603</v>
+      </c>
+      <c r="T13" s="5">
+        <v>884.26365591974695</v>
+      </c>
+      <c r="V13" s="6">
+        <v>809.91780068585797</v>
+      </c>
+      <c r="W13" s="6">
+        <v>823.45789118056405</v>
+      </c>
+    </row>
+    <row r="14" spans="7:23" ht="15.75" x14ac:dyDescent="0.25">
       <c r="G14" s="2" t="s">
         <v>20</v>
       </c>
@@ -1959,8 +2284,20 @@
       <c r="Q14" s="5">
         <v>899.37489232235396</v>
       </c>
-    </row>
-    <row r="15" spans="7:20" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="S14" s="5">
+        <v>851.34181897465498</v>
+      </c>
+      <c r="T14" s="5">
+        <v>888.40408705749803</v>
+      </c>
+      <c r="V14" s="6">
+        <v>827.75010487731004</v>
+      </c>
+      <c r="W14" s="6">
+        <v>847.78078094086095</v>
+      </c>
+    </row>
+    <row r="15" spans="7:23" ht="15.75" x14ac:dyDescent="0.25">
       <c r="G15" s="2" t="s">
         <v>21</v>
       </c>
@@ -1991,8 +2328,20 @@
       <c r="Q15" s="5">
         <v>906.93072019070598</v>
       </c>
-    </row>
-    <row r="16" spans="7:20" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="S15" s="5">
+        <v>860.57955435490101</v>
+      </c>
+      <c r="T15" s="5">
+        <v>891.50931534672895</v>
+      </c>
+      <c r="V15" s="6">
+        <v>842.48072782070699</v>
+      </c>
+      <c r="W15" s="6">
+        <v>857.74799252498497</v>
+      </c>
+    </row>
+    <row r="16" spans="7:23" ht="15.75" x14ac:dyDescent="0.25">
       <c r="G16" s="2" t="s">
         <v>22</v>
       </c>
@@ -2023,8 +2372,20 @@
       <c r="Q16" s="5">
         <v>910.27775995582397</v>
       </c>
-    </row>
-    <row r="17" spans="5:17" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="S16" s="5">
+        <v>856.98829328829402</v>
+      </c>
+      <c r="T16" s="5">
+        <v>889.16988586460002</v>
+      </c>
+      <c r="V16" s="6">
+        <v>851.44032634851305</v>
+      </c>
+      <c r="W16" s="6">
+        <v>858.57978654755402</v>
+      </c>
+    </row>
+    <row r="17" spans="5:23" ht="15.75" x14ac:dyDescent="0.25">
       <c r="G17" s="2" t="s">
         <v>23</v>
       </c>
@@ -2055,8 +2416,20 @@
       <c r="Q17" s="5">
         <v>910.53208296440096</v>
       </c>
-    </row>
-    <row r="18" spans="5:17" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="S17" s="5">
+        <v>869.80768668622295</v>
+      </c>
+      <c r="T17" s="5">
+        <v>894.83577190180597</v>
+      </c>
+      <c r="V17" s="6">
+        <v>846.57294116535695</v>
+      </c>
+      <c r="W17" s="6">
+        <v>856.62519408615799</v>
+      </c>
+    </row>
+    <row r="18" spans="5:23" ht="15.75" x14ac:dyDescent="0.25">
       <c r="G18" s="2" t="s">
         <v>24</v>
       </c>
@@ -2084,8 +2457,14 @@
       <c r="Q18" s="5">
         <v>948.16210529684201</v>
       </c>
-    </row>
-    <row r="19" spans="5:17" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="T18" s="5">
+        <v>916.22946856245596</v>
+      </c>
+      <c r="W18" s="6">
+        <v>860.87304452489104</v>
+      </c>
+    </row>
+    <row r="19" spans="5:23" ht="15.75" x14ac:dyDescent="0.25">
       <c r="G19" s="2" t="s">
         <v>25</v>
       </c>
@@ -2113,8 +2492,14 @@
       <c r="Q19" s="5">
         <v>952.09518020662097</v>
       </c>
-    </row>
-    <row r="20" spans="5:17" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="T19" s="5">
+        <v>911.35138010101502</v>
+      </c>
+      <c r="W19" s="6">
+        <v>862.61032854171401</v>
+      </c>
+    </row>
+    <row r="20" spans="5:23" ht="15.75" x14ac:dyDescent="0.25">
       <c r="G20" s="2" t="s">
         <v>26</v>
       </c>
@@ -2142,8 +2527,14 @@
       <c r="Q20" s="5">
         <v>952.09518020662097</v>
       </c>
-    </row>
-    <row r="21" spans="5:17" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="T20" s="5">
+        <v>903.906428506211</v>
+      </c>
+      <c r="W20" s="6">
+        <v>863.688341818965</v>
+      </c>
+    </row>
+    <row r="21" spans="5:23" ht="15.75" x14ac:dyDescent="0.25">
       <c r="G21" s="2" t="s">
         <v>27</v>
       </c>
@@ -2171,8 +2562,14 @@
       <c r="Q21" s="5">
         <v>967.25214130583902</v>
       </c>
-    </row>
-    <row r="22" spans="5:17" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="T21" s="5">
+        <v>931.70404964591796</v>
+      </c>
+      <c r="W21" s="6">
+        <v>893.90815410228697</v>
+      </c>
+    </row>
+    <row r="22" spans="5:23" ht="15.75" x14ac:dyDescent="0.25">
       <c r="G22" s="2" t="s">
         <v>28</v>
       </c>
@@ -2200,8 +2597,14 @@
       <c r="Q22" s="5">
         <v>980.115596103803</v>
       </c>
-    </row>
-    <row r="23" spans="5:17" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="T22" s="5">
+        <v>943.11874669212602</v>
+      </c>
+      <c r="W22" s="6">
+        <v>934.04804465904704</v>
+      </c>
+    </row>
+    <row r="23" spans="5:23" ht="15.75" x14ac:dyDescent="0.25">
       <c r="G23" s="2" t="s">
         <v>29</v>
       </c>
@@ -2229,8 +2632,14 @@
       <c r="Q23" s="5">
         <v>975.88914862967397</v>
       </c>
-    </row>
-    <row r="24" spans="5:17" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="T23" s="5">
+        <v>968.62088414226002</v>
+      </c>
+      <c r="W23" s="6">
+        <v>922.89999673528996</v>
+      </c>
+    </row>
+    <row r="24" spans="5:23" ht="15.75" x14ac:dyDescent="0.25">
       <c r="G24" s="2" t="s">
         <v>30</v>
       </c>
@@ -2258,8 +2667,14 @@
       <c r="Q24" s="5">
         <v>970.63148253992495</v>
       </c>
-    </row>
-    <row r="25" spans="5:17" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="T24" s="5">
+        <v>967.26750197128194</v>
+      </c>
+      <c r="W24" s="6">
+        <v>928.93154109508498</v>
+      </c>
+    </row>
+    <row r="25" spans="5:23" ht="15.75" x14ac:dyDescent="0.25">
       <c r="G25" s="2" t="s">
         <v>31</v>
       </c>
@@ -2287,8 +2702,14 @@
       <c r="Q25" s="5">
         <v>973.27807693108196</v>
       </c>
-    </row>
-    <row r="26" spans="5:17" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="T25" s="5">
+        <v>963.86601451907995</v>
+      </c>
+      <c r="W25" s="6">
+        <v>936.25508682541897</v>
+      </c>
+    </row>
+    <row r="26" spans="5:23" ht="15.75" x14ac:dyDescent="0.25">
       <c r="G26" s="2" t="s">
         <v>32</v>
       </c>
@@ -2316,8 +2737,14 @@
       <c r="Q26" s="5">
         <v>970.36766231386196</v>
       </c>
-    </row>
-    <row r="27" spans="5:17" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="T26" s="5">
+        <v>929.65172362937005</v>
+      </c>
+      <c r="W26" s="6">
+        <v>915.78064071190602</v>
+      </c>
+    </row>
+    <row r="27" spans="5:23" ht="15.75" x14ac:dyDescent="0.25">
       <c r="G27" s="2" t="s">
         <v>33</v>
       </c>
@@ -2345,8 +2772,14 @@
       <c r="Q27" s="5">
         <v>926.48378242996</v>
       </c>
-    </row>
-    <row r="28" spans="5:17" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="T27" s="5">
+        <v>902.59717178579797</v>
+      </c>
+      <c r="W27" s="6">
+        <v>863.10936646863797</v>
+      </c>
+    </row>
+    <row r="28" spans="5:23" ht="15.75" x14ac:dyDescent="0.25">
       <c r="G28" s="2" t="s">
         <v>34</v>
       </c>
@@ -2374,8 +2807,14 @@
       <c r="Q28" s="5">
         <v>854.32318433859598</v>
       </c>
-    </row>
-    <row r="29" spans="5:17" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="T28" s="5">
+        <v>840.26935854747705</v>
+      </c>
+      <c r="W28" s="6">
+        <v>797.65592832518701</v>
+      </c>
+    </row>
+    <row r="29" spans="5:23" ht="15.75" x14ac:dyDescent="0.25">
       <c r="G29" s="2" t="s">
         <v>35</v>
       </c>
@@ -2403,19 +2842,27 @@
       <c r="Q29" s="5">
         <v>807.27166346676097</v>
       </c>
-    </row>
-    <row r="30" spans="5:17" x14ac:dyDescent="0.25">
+      <c r="T29" s="5">
+        <v>801.87295728314996</v>
+      </c>
+      <c r="W29" s="6">
+        <v>752.48108550053701</v>
+      </c>
+    </row>
+    <row r="30" spans="5:23" x14ac:dyDescent="0.25">
       <c r="M30" s="8"/>
       <c r="N30" s="8"/>
     </row>
-    <row r="31" spans="5:17" x14ac:dyDescent="0.25">
+    <row r="31" spans="5:23" x14ac:dyDescent="0.25">
       <c r="M31" s="8"/>
       <c r="N31" s="8"/>
-    </row>
-    <row r="32" spans="5:17" x14ac:dyDescent="0.25">
+      <c r="R31" s="3"/>
+    </row>
+    <row r="32" spans="5:23" x14ac:dyDescent="0.25">
       <c r="E32" s="3"/>
       <c r="G32" s="3"/>
       <c r="H32" s="3"/>
+      <c r="R32" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2424,10 +2871,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{185D8008-839C-47F4-A2B1-4F9CFB00FEB4}">
-  <dimension ref="F5:S35"/>
+  <dimension ref="F5:AH35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F7" workbookViewId="0">
-      <selection activeCell="Q30" sqref="Q30"/>
+    <sheetView tabSelected="1" topLeftCell="G4" workbookViewId="0">
+      <selection activeCell="Q18" sqref="Q18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2438,17 +2885,23 @@
     <col min="14" max="14" width="14.5703125" bestFit="1" customWidth="1"/>
     <col min="15" max="16" width="15.5703125" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="15.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="6:19" x14ac:dyDescent="0.25">
+    <row r="5" spans="6:22" x14ac:dyDescent="0.25">
       <c r="P5" t="s">
         <v>39</v>
       </c>
       <c r="R5" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="6" spans="6:19" x14ac:dyDescent="0.25">
+      <c r="U5" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="6" spans="6:22" x14ac:dyDescent="0.25">
       <c r="F6" t="s">
         <v>42</v>
       </c>
@@ -2461,8 +2914,11 @@
       <c r="Q6" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="7" spans="6:19" x14ac:dyDescent="0.25">
+      <c r="T6" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="7" spans="6:22" x14ac:dyDescent="0.25">
       <c r="F7" t="s">
         <v>1</v>
       </c>
@@ -2505,8 +2961,17 @@
       <c r="S7" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="8" spans="6:19" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="T7" t="s">
+        <v>16</v>
+      </c>
+      <c r="U7" t="s">
+        <v>14</v>
+      </c>
+      <c r="V7" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="8" spans="6:22" ht="15.75" x14ac:dyDescent="0.25">
       <c r="F8" s="1" t="s">
         <v>7</v>
       </c>
@@ -2540,8 +3005,26 @@
       <c r="P8" s="4">
         <v>72.284167899482796</v>
       </c>
-    </row>
-    <row r="9" spans="6:19" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="Q8" s="4">
+        <v>74.356838686246107</v>
+      </c>
+      <c r="R8" s="6">
+        <v>79.775759501134701</v>
+      </c>
+      <c r="S8" s="4">
+        <v>76.59375</v>
+      </c>
+      <c r="T8" s="4">
+        <v>69.1640426819162</v>
+      </c>
+      <c r="U8" s="4">
+        <v>69.670810270927007</v>
+      </c>
+      <c r="V8" s="4">
+        <v>74.234828080590304</v>
+      </c>
+    </row>
+    <row r="9" spans="6:22" ht="15.75" x14ac:dyDescent="0.25">
       <c r="F9" s="2" t="s">
         <v>8</v>
       </c>
@@ -2575,8 +3058,26 @@
       <c r="P9" s="5">
         <v>71.861100135209298</v>
       </c>
-    </row>
-    <row r="10" spans="6:19" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="Q9" s="5">
+        <v>74.446715461426095</v>
+      </c>
+      <c r="R9" s="6">
+        <v>79.703318792652894</v>
+      </c>
+      <c r="S9" s="4">
+        <v>76.59375</v>
+      </c>
+      <c r="T9" s="5">
+        <v>69.022066061110493</v>
+      </c>
+      <c r="U9" s="5">
+        <v>67.917556551390703</v>
+      </c>
+      <c r="V9" s="5">
+        <v>74.221238651833204</v>
+      </c>
+    </row>
+    <row r="10" spans="6:22" ht="15.75" x14ac:dyDescent="0.25">
       <c r="F10" s="2" t="s">
         <v>9</v>
       </c>
@@ -2610,8 +3111,26 @@
       <c r="P10" s="5">
         <v>72.101609875475006</v>
       </c>
-    </row>
-    <row r="11" spans="6:19" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="Q10" s="5">
+        <v>74.649946694210698</v>
+      </c>
+      <c r="R10" s="6">
+        <v>79.569284766127396</v>
+      </c>
+      <c r="S10" s="4">
+        <v>76.59375</v>
+      </c>
+      <c r="T10" s="5">
+        <v>70.593774910872597</v>
+      </c>
+      <c r="U10" s="5">
+        <v>68.492888517692606</v>
+      </c>
+      <c r="V10" s="5">
+        <v>74.302991891555806</v>
+      </c>
+    </row>
+    <row r="11" spans="6:22" ht="15.75" x14ac:dyDescent="0.25">
       <c r="F11" s="2" t="s">
         <v>10</v>
       </c>
@@ -2645,8 +3164,26 @@
       <c r="P11" s="5">
         <v>72.685457772374406</v>
       </c>
-    </row>
-    <row r="12" spans="6:19" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="Q11" s="5">
+        <v>74.877532662002693</v>
+      </c>
+      <c r="R11" s="6">
+        <v>79.423117139122695</v>
+      </c>
+      <c r="S11" s="5">
+        <v>76.59375</v>
+      </c>
+      <c r="T11" s="5">
+        <v>71.091075665344604</v>
+      </c>
+      <c r="U11" s="5">
+        <v>69.064129278431196</v>
+      </c>
+      <c r="V11" s="4">
+        <v>74.543230556732894</v>
+      </c>
+    </row>
+    <row r="12" spans="6:22" ht="15.75" x14ac:dyDescent="0.25">
       <c r="F12" s="2" t="s">
         <v>11</v>
       </c>
@@ -2680,8 +3217,26 @@
       <c r="P12" s="5">
         <v>75.838931654377006</v>
       </c>
-    </row>
-    <row r="13" spans="6:19" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="Q12" s="5">
+        <v>75.056387145780704</v>
+      </c>
+      <c r="R12" s="7">
+        <v>79.315977777045205</v>
+      </c>
+      <c r="S12" s="5">
+        <v>76.59375</v>
+      </c>
+      <c r="T12" s="5">
+        <v>73.196759499986896</v>
+      </c>
+      <c r="U12" s="5">
+        <v>71.608254653856903</v>
+      </c>
+      <c r="V12" s="5">
+        <v>75.637668171855097</v>
+      </c>
+    </row>
+    <row r="13" spans="6:22" ht="15.75" x14ac:dyDescent="0.25">
       <c r="F13" s="2" t="s">
         <v>12</v>
       </c>
@@ -2715,8 +3270,26 @@
       <c r="P13" s="5">
         <v>77.371626529193904</v>
       </c>
-    </row>
-    <row r="14" spans="6:19" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="Q13" s="5">
+        <v>75.322734012191106</v>
+      </c>
+      <c r="R13" s="6">
+        <v>79.150960508448804</v>
+      </c>
+      <c r="S13" s="5">
+        <v>76.59375</v>
+      </c>
+      <c r="T13" s="5">
+        <v>76.299132097536898</v>
+      </c>
+      <c r="U13" s="5">
+        <v>73.455935957809402</v>
+      </c>
+      <c r="V13" s="5">
+        <v>77.298307813282506</v>
+      </c>
+    </row>
+    <row r="14" spans="6:22" ht="15.75" x14ac:dyDescent="0.25">
       <c r="F14" s="2" t="s">
         <v>18</v>
       </c>
@@ -2747,8 +3320,20 @@
       <c r="P14" s="5">
         <v>80.889789314021698</v>
       </c>
-    </row>
-    <row r="15" spans="6:19" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="R14" s="6">
+        <v>78.987821958924499</v>
+      </c>
+      <c r="S14" s="5">
+        <v>76.59375</v>
+      </c>
+      <c r="U14" s="5">
+        <v>76.706305322382605</v>
+      </c>
+      <c r="V14" s="5">
+        <v>78.390755222914507</v>
+      </c>
+    </row>
+    <row r="15" spans="6:22" ht="15.75" x14ac:dyDescent="0.25">
       <c r="F15" s="2" t="s">
         <v>19</v>
       </c>
@@ -2779,8 +3364,20 @@
       <c r="P15" s="5">
         <v>78.0797393384576</v>
       </c>
-    </row>
-    <row r="16" spans="6:19" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="R15" s="6">
+        <v>78.965843378576096</v>
+      </c>
+      <c r="S15" s="5">
+        <v>76.59375</v>
+      </c>
+      <c r="U15" s="5">
+        <v>73.557972372174106</v>
+      </c>
+      <c r="V15" s="5">
+        <v>76.063709713701698</v>
+      </c>
+    </row>
+    <row r="16" spans="6:22" ht="15.75" x14ac:dyDescent="0.25">
       <c r="F16" s="2" t="s">
         <v>20</v>
       </c>
@@ -2811,8 +3408,20 @@
       <c r="P16" s="5">
         <v>81.789484165995802</v>
       </c>
-    </row>
-    <row r="17" spans="6:16" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="R16" s="6">
+        <v>78.797770198521604</v>
+      </c>
+      <c r="S16" s="5">
+        <v>76.59375</v>
+      </c>
+      <c r="U16" s="5">
+        <v>77.20812262295</v>
+      </c>
+      <c r="V16" s="5">
+        <v>79.508335506930905</v>
+      </c>
+    </row>
+    <row r="17" spans="6:22" ht="15.75" x14ac:dyDescent="0.25">
       <c r="F17" s="2" t="s">
         <v>21</v>
       </c>
@@ -2843,8 +3452,20 @@
       <c r="P17" s="5">
         <v>82.150731403534607</v>
       </c>
-    </row>
-    <row r="18" spans="6:16" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="R17" s="6">
+        <v>78.622988650651095</v>
+      </c>
+      <c r="S17" s="5">
+        <v>76.59375</v>
+      </c>
+      <c r="U17" s="5">
+        <v>76.518466053861204</v>
+      </c>
+      <c r="V17" s="5">
+        <v>79.120180343773995</v>
+      </c>
+    </row>
+    <row r="18" spans="6:22" ht="15.75" x14ac:dyDescent="0.25">
       <c r="F18" s="2" t="s">
         <v>22</v>
       </c>
@@ -2875,8 +3496,20 @@
       <c r="P18" s="5">
         <v>79.209494165066801</v>
       </c>
-    </row>
-    <row r="19" spans="6:16" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="R18" s="6">
+        <v>78.345444776630998</v>
+      </c>
+      <c r="S18" s="5">
+        <v>76.59375</v>
+      </c>
+      <c r="U18" s="5">
+        <v>75.929757042363207</v>
+      </c>
+      <c r="V18" s="5">
+        <v>78.4768541707992</v>
+      </c>
+    </row>
+    <row r="19" spans="6:22" ht="15.75" x14ac:dyDescent="0.25">
       <c r="F19" s="2" t="s">
         <v>23</v>
       </c>
@@ -2907,8 +3540,20 @@
       <c r="P19" s="5">
         <v>78.289413208856004</v>
       </c>
-    </row>
-    <row r="20" spans="6:16" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="R19" s="6">
+        <v>78.046468131562904</v>
+      </c>
+      <c r="S19" s="5">
+        <v>76.59375</v>
+      </c>
+      <c r="U19" s="5">
+        <v>75.614372509783195</v>
+      </c>
+      <c r="V19" s="5">
+        <v>77.762938819770795</v>
+      </c>
+    </row>
+    <row r="20" spans="6:22" ht="15.75" x14ac:dyDescent="0.25">
       <c r="F20" s="2" t="s">
         <v>24</v>
       </c>
@@ -2936,8 +3581,14 @@
       <c r="P20" s="5">
         <v>77.751775956967094</v>
       </c>
-    </row>
-    <row r="21" spans="6:16" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="S20" s="5">
+        <v>76.59375</v>
+      </c>
+      <c r="V20" s="5">
+        <v>78.592806278923106</v>
+      </c>
+    </row>
+    <row r="21" spans="6:22" ht="15.75" x14ac:dyDescent="0.25">
       <c r="F21" s="2" t="s">
         <v>25</v>
       </c>
@@ -2965,8 +3616,14 @@
       <c r="P21" s="5">
         <v>77.428019850713895</v>
       </c>
-    </row>
-    <row r="22" spans="6:16" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="S21" s="5">
+        <v>76.59375</v>
+      </c>
+      <c r="V21" s="5">
+        <v>78.262917424046606</v>
+      </c>
+    </row>
+    <row r="22" spans="6:22" ht="15.75" x14ac:dyDescent="0.25">
       <c r="F22" s="2" t="s">
         <v>26</v>
       </c>
@@ -2994,8 +3651,14 @@
       <c r="P22" s="5">
         <v>77.285747110450004</v>
       </c>
-    </row>
-    <row r="23" spans="6:16" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="S22" s="5">
+        <v>76.59375</v>
+      </c>
+      <c r="V22" s="5">
+        <v>78.088935136297195</v>
+      </c>
+    </row>
+    <row r="23" spans="6:22" ht="15.75" x14ac:dyDescent="0.25">
       <c r="F23" s="2" t="s">
         <v>27</v>
       </c>
@@ -3023,8 +3686,14 @@
       <c r="P23" s="5">
         <v>79.502820516588898</v>
       </c>
-    </row>
-    <row r="24" spans="6:16" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="S23" s="5">
+        <v>76.59375</v>
+      </c>
+      <c r="V23" s="5">
+        <v>78.336863422532005</v>
+      </c>
+    </row>
+    <row r="24" spans="6:22" ht="15.75" x14ac:dyDescent="0.25">
       <c r="F24" s="2" t="s">
         <v>28</v>
       </c>
@@ -3052,8 +3721,14 @@
       <c r="P24" s="5">
         <v>80.955950363037203</v>
       </c>
-    </row>
-    <row r="25" spans="6:16" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="S24" s="5">
+        <v>76.59375</v>
+      </c>
+      <c r="V24" s="5">
+        <v>80.884811440348102</v>
+      </c>
+    </row>
+    <row r="25" spans="6:22" ht="15.75" x14ac:dyDescent="0.25">
       <c r="F25" s="2" t="s">
         <v>29</v>
       </c>
@@ -3081,8 +3756,14 @@
       <c r="P25" s="5">
         <v>81.2213891443471</v>
       </c>
-    </row>
-    <row r="26" spans="6:16" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="S25" s="5">
+        <v>76.59375</v>
+      </c>
+      <c r="V25" s="5">
+        <v>80.551332541941605</v>
+      </c>
+    </row>
+    <row r="26" spans="6:22" ht="15.75" x14ac:dyDescent="0.25">
       <c r="F26" s="2" t="s">
         <v>30</v>
       </c>
@@ -3110,8 +3791,14 @@
       <c r="P26" s="5">
         <v>79.503236296463996</v>
       </c>
-    </row>
-    <row r="27" spans="6:16" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="S26" s="5">
+        <v>76.59375</v>
+      </c>
+      <c r="V26" s="5">
+        <v>80.0933591874483</v>
+      </c>
+    </row>
+    <row r="27" spans="6:22" ht="15.75" x14ac:dyDescent="0.25">
       <c r="F27" s="2" t="s">
         <v>31</v>
       </c>
@@ -3139,8 +3826,14 @@
       <c r="P27" s="5">
         <v>80.741919846063297</v>
       </c>
-    </row>
-    <row r="28" spans="6:16" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="S27" s="5">
+        <v>76.59375</v>
+      </c>
+      <c r="V27" s="5">
+        <v>79.8732232817392</v>
+      </c>
+    </row>
+    <row r="28" spans="6:22" ht="15.75" x14ac:dyDescent="0.25">
       <c r="F28" s="2" t="s">
         <v>32</v>
       </c>
@@ -3168,8 +3861,14 @@
       <c r="P28" s="5">
         <v>80.294196452817502</v>
       </c>
-    </row>
-    <row r="29" spans="6:16" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="S28" s="5">
+        <v>76.59375</v>
+      </c>
+      <c r="V28" s="5">
+        <v>78.305327640154999</v>
+      </c>
+    </row>
+    <row r="29" spans="6:22" ht="15.75" x14ac:dyDescent="0.25">
       <c r="F29" s="2" t="s">
         <v>33</v>
       </c>
@@ -3197,8 +3896,14 @@
       <c r="P29" s="5">
         <v>76.034855172271605</v>
       </c>
-    </row>
-    <row r="30" spans="6:16" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="S29" s="5">
+        <v>76.59375</v>
+      </c>
+      <c r="V29" s="5">
+        <v>77.415051404526906</v>
+      </c>
+    </row>
+    <row r="30" spans="6:22" ht="15.75" x14ac:dyDescent="0.25">
       <c r="F30" s="2" t="s">
         <v>34</v>
       </c>
@@ -3226,8 +3931,14 @@
       <c r="P30" s="5">
         <v>74.355691536289797</v>
       </c>
-    </row>
-    <row r="31" spans="6:16" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="S30" s="5">
+        <v>76.59375</v>
+      </c>
+      <c r="V30" s="5">
+        <v>76.614450807483905</v>
+      </c>
+    </row>
+    <row r="31" spans="6:22" ht="15.75" x14ac:dyDescent="0.25">
       <c r="F31" s="2" t="s">
         <v>35</v>
       </c>
@@ -3255,15 +3966,59 @@
       <c r="P31" s="5">
         <v>71.380864632141197</v>
       </c>
-    </row>
-    <row r="32" spans="6:16" x14ac:dyDescent="0.25">
+      <c r="S31" s="5">
+        <v>76.59375</v>
+      </c>
+      <c r="V31" s="5">
+        <v>73.577821094703793</v>
+      </c>
+    </row>
+    <row r="32" spans="6:22" x14ac:dyDescent="0.25">
       <c r="L32" s="8"/>
       <c r="M32" s="8"/>
-    </row>
-    <row r="33" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="V32" s="5"/>
+    </row>
+    <row r="33" spans="6:34" x14ac:dyDescent="0.25">
       <c r="F33" s="3"/>
-    </row>
-    <row r="35" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="I33" s="4"/>
+      <c r="J33" s="5"/>
+      <c r="K33" s="5"/>
+      <c r="L33" s="5"/>
+      <c r="M33" s="5"/>
+      <c r="N33" s="5"/>
+      <c r="O33" s="5"/>
+      <c r="P33" s="5"/>
+      <c r="Q33" s="5"/>
+      <c r="R33" s="5"/>
+      <c r="S33" s="5"/>
+    </row>
+    <row r="34" spans="6:34" x14ac:dyDescent="0.25">
+      <c r="K34" s="4"/>
+      <c r="L34" s="4"/>
+      <c r="M34" s="4"/>
+      <c r="N34" s="5"/>
+      <c r="O34" s="5"/>
+      <c r="P34" s="5"/>
+      <c r="Q34" s="5"/>
+      <c r="R34" s="5"/>
+      <c r="S34" s="5"/>
+      <c r="T34" s="5"/>
+      <c r="U34" s="5"/>
+      <c r="V34" s="5"/>
+      <c r="W34" s="5"/>
+      <c r="X34" s="5"/>
+      <c r="Y34" s="5"/>
+      <c r="Z34" s="5"/>
+      <c r="AA34" s="5"/>
+      <c r="AB34" s="5"/>
+      <c r="AC34" s="5"/>
+      <c r="AD34" s="5"/>
+      <c r="AE34" s="5"/>
+      <c r="AF34" s="5"/>
+      <c r="AG34" s="5"/>
+      <c r="AH34" s="5"/>
+    </row>
+    <row r="35" spans="6:34" x14ac:dyDescent="0.25">
       <c r="F35" s="3"/>
     </row>
   </sheetData>
